--- a/outputs/Correlation_tests/tstat_df_matrix.xlsx
+++ b/outputs/Correlation_tests/tstat_df_matrix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mael\R_projects\ithomiini_current\outputs\Correlation_tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mael\R_projects\ithomiini_diversity\outputs\Correlation_tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11904B1-3C57-48C3-8F0C-60DF586F2504}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A7255E-C39E-48E2-AFD2-E7C48A36B497}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,15 +16,15 @@
     <sheet name="tstat_df_matrix" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Print_Area" localSheetId="0">tstat_df_matrix!$B$2:$L$12</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">tstat_df_matrix!$B$2:$L$12</definedName>
+    <definedName name="Print_Area" localSheetId="0">tstat_df_matrix!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">tstat_df_matrix!$B$3:$M$14</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
   <si>
     <t>Sp. richness</t>
   </si>
@@ -38,12 +38,6 @@
     <t>Faith's PD</t>
   </si>
   <si>
-    <t>Sum of FP</t>
-  </si>
-  <si>
-    <t>MPD</t>
-  </si>
-  <si>
     <t>Mim. richness</t>
   </si>
   <si>
@@ -59,18 +53,9 @@
     <t>54.3</t>
   </si>
   <si>
-    <t>51.3</t>
-  </si>
-  <si>
     <t>54.8</t>
   </si>
   <si>
-    <t>52.1</t>
-  </si>
-  <si>
-    <t>51.6</t>
-  </si>
-  <si>
     <t>53.8</t>
   </si>
   <si>
@@ -80,172 +65,244 @@
     <t>Clifford's corrected degrees of freedom</t>
   </si>
   <si>
-    <t>165.46</t>
-  </si>
-  <si>
-    <t>5.53</t>
-  </si>
-  <si>
-    <t>81.78</t>
-  </si>
-  <si>
-    <t>60.38</t>
-  </si>
-  <si>
-    <t>0.38</t>
-  </si>
-  <si>
-    <t>18.58</t>
-  </si>
-  <si>
-    <t>5.62</t>
-  </si>
-  <si>
-    <t>53.4</t>
-  </si>
-  <si>
-    <t>50.2</t>
-  </si>
-  <si>
-    <t>53.9</t>
-  </si>
-  <si>
-    <t>49.8</t>
-  </si>
-  <si>
-    <t>54.1</t>
-  </si>
-  <si>
-    <t>54.4</t>
-  </si>
-  <si>
-    <t>54.6</t>
-  </si>
-  <si>
-    <t>50.7</t>
-  </si>
-  <si>
-    <t>5.57</t>
-  </si>
-  <si>
-    <t>53.2</t>
-  </si>
-  <si>
-    <t>46.2</t>
-  </si>
-  <si>
-    <t>50.3</t>
-  </si>
-  <si>
-    <t>43.9</t>
-  </si>
-  <si>
-    <t>5.35</t>
-  </si>
-  <si>
-    <t>51.1</t>
-  </si>
-  <si>
-    <t>50.1</t>
+    <t>ED</t>
+  </si>
+  <si>
+    <t>Mean ring size</t>
+  </si>
+  <si>
+    <t>Max ring size</t>
+  </si>
+  <si>
+    <t>57.8</t>
+  </si>
+  <si>
+    <t>56.7</t>
+  </si>
+  <si>
+    <t>57.9</t>
+  </si>
+  <si>
+    <t>63.6</t>
+  </si>
+  <si>
+    <t>56.6</t>
+  </si>
+  <si>
+    <t>169.84</t>
+  </si>
+  <si>
+    <t>57.3</t>
+  </si>
+  <si>
+    <t>58.3</t>
+  </si>
+  <si>
+    <t>57.7</t>
+  </si>
+  <si>
+    <t>83.96</t>
+  </si>
+  <si>
+    <t>75.38</t>
+  </si>
+  <si>
+    <t>62.7</t>
+  </si>
+  <si>
+    <t>56.5</t>
+  </si>
+  <si>
+    <t>56.8</t>
+  </si>
+  <si>
+    <t>61.93</t>
+  </si>
+  <si>
+    <t>61.65</t>
+  </si>
+  <si>
+    <t>60.6</t>
+  </si>
+  <si>
+    <t>53.5</t>
+  </si>
+  <si>
+    <t>53.7</t>
+  </si>
+  <si>
+    <t>21.16</t>
+  </si>
+  <si>
+    <t>21.63</t>
+  </si>
+  <si>
+    <t>20.8</t>
+  </si>
+  <si>
+    <t>18.92</t>
+  </si>
+  <si>
+    <t>60.5</t>
+  </si>
+  <si>
+    <t>62.1</t>
+  </si>
+  <si>
+    <t>63.4</t>
+  </si>
+  <si>
+    <t>23.75</t>
+  </si>
+  <si>
+    <t>24.08</t>
+  </si>
+  <si>
+    <t>22.89</t>
+  </si>
+  <si>
+    <t>20.34</t>
+  </si>
+  <si>
+    <t>25.65</t>
+  </si>
+  <si>
+    <t>66.9</t>
+  </si>
+  <si>
+    <t>68.3</t>
+  </si>
+  <si>
+    <t>65.5</t>
+  </si>
+  <si>
+    <t>19.67</t>
+  </si>
+  <si>
+    <t>19.31</t>
+  </si>
+  <si>
+    <t>18.16</t>
+  </si>
+  <si>
+    <t>19.45</t>
+  </si>
+  <si>
+    <t>9.95</t>
+  </si>
+  <si>
+    <t>11.34</t>
+  </si>
+  <si>
+    <t>14.82</t>
+  </si>
+  <si>
+    <t>14.6</t>
+  </si>
+  <si>
+    <t>14.11</t>
+  </si>
+  <si>
+    <t>14.88</t>
+  </si>
+  <si>
+    <t>8.58</t>
+  </si>
+  <si>
+    <t>8.93</t>
+  </si>
+  <si>
+    <t>36.45</t>
+  </si>
+  <si>
+    <t>4.34</t>
+  </si>
+  <si>
+    <t>4.39</t>
+  </si>
+  <si>
+    <t>4.18</t>
+  </si>
+  <si>
+    <t>3.65</t>
+  </si>
+  <si>
+    <t>4.01</t>
+  </si>
+  <si>
+    <t>4.47</t>
+  </si>
+  <si>
+    <t>3.62</t>
+  </si>
+  <si>
+    <t>3.24</t>
+  </si>
+  <si>
+    <t>5.98</t>
+  </si>
+  <si>
+    <t>5.99</t>
+  </si>
+  <si>
+    <t>5.92</t>
+  </si>
+  <si>
+    <t>5.45</t>
+  </si>
+  <si>
+    <t>4.38</t>
+  </si>
+  <si>
+    <t>5.49</t>
+  </si>
+  <si>
+    <t>6.28</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>7.05</t>
+  </si>
+  <si>
+    <t>65.4</t>
+  </si>
+  <si>
+    <t>66.1</t>
+  </si>
+  <si>
+    <t>65.2</t>
+  </si>
+  <si>
+    <t>62.2</t>
+  </si>
+  <si>
+    <t>69.6</t>
+  </si>
+  <si>
+    <t>74.5</t>
+  </si>
+  <si>
+    <t>62.5</t>
+  </si>
+  <si>
+    <t>61.5</t>
+  </si>
+  <si>
+    <t>62.4</t>
+  </si>
+  <si>
+    <t>61.6</t>
+  </si>
+  <si>
+    <t>58.1</t>
+  </si>
+  <si>
+    <t>71.9</t>
   </si>
   <si>
     <t>54.2</t>
-  </si>
-  <si>
-    <t>53.44</t>
-  </si>
-  <si>
-    <t>4.79</t>
-  </si>
-  <si>
-    <t>60.11</t>
-  </si>
-  <si>
-    <t>47.2</t>
-  </si>
-  <si>
-    <t>46.9</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>-2.25</t>
-  </si>
-  <si>
-    <t>0.52</t>
-  </si>
-  <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>45.1</t>
-  </si>
-  <si>
-    <t>44.1</t>
-  </si>
-  <si>
-    <t>37.3</t>
-  </si>
-  <si>
-    <t>18.41</t>
-  </si>
-  <si>
-    <t>4.56</t>
-  </si>
-  <si>
-    <t>17.22</t>
-  </si>
-  <si>
-    <t>18.52</t>
-  </si>
-  <si>
-    <t>0.53</t>
-  </si>
-  <si>
-    <t>49.3</t>
-  </si>
-  <si>
-    <t>42.3</t>
-  </si>
-  <si>
-    <t>13.88</t>
-  </si>
-  <si>
-    <t>4.12</t>
-  </si>
-  <si>
-    <t>13.37</t>
-  </si>
-  <si>
-    <t>14.13</t>
-  </si>
-  <si>
-    <t>0.67</t>
-  </si>
-  <si>
-    <t>34.57</t>
-  </si>
-  <si>
-    <t>41.4</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>5.48</t>
-  </si>
-  <si>
-    <t>5.25</t>
-  </si>
-  <si>
-    <t>-0.59</t>
-  </si>
-  <si>
-    <t>6.58</t>
-  </si>
-  <si>
-    <t>6.07</t>
   </si>
 </sst>
 </file>
@@ -753,9 +810,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -763,27 +819,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1156,10 +1224,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:L12"/>
+  <dimension ref="B2:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L12"/>
+      <selection activeCell="B3" sqref="B3:M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,363 +1236,432 @@
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
     <col min="12" max="12" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14" t="s">
+    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+    </row>
+    <row r="4" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="G5" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="1">
+        <v>57</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="3" spans="2:12" s="9" customFormat="1" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="9" t="s">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="21"/>
+      <c r="C6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="D6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="13">
+        <v>64</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="21"/>
+      <c r="C7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="15">
+        <v>57</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="21"/>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="13">
+        <v>55</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="21"/>
+      <c r="C9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="21"/>
+      <c r="C10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M10" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="21"/>
+      <c r="C11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="15">
+        <v>52</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="21"/>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="21"/>
+      <c r="C13" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="D13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="22"/>
+      <c r="C14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="D14" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="M14" s="18" t="s">
         <v>7</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="4">
-        <v>51</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="4">
-        <v>55</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
-      <c r="C7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="4">
-        <v>67</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
-      <c r="C8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="6">
-        <v>51</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
-      <c r="C9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
-      <c r="C10" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
-      <c r="C11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="4">
-        <v>14</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
-      <c r="C12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D2:L2"/>
-    <mergeCell ref="B4:B12"/>
+    <mergeCell ref="D3:M3"/>
+    <mergeCell ref="B5:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="92" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>